--- a/switch_list1.xlsx
+++ b/switch_list1.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5240DECB-A4FA-4940-AB47-74A514BC217A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37AFEABD-54DA-4353-98C5-B8549C0097A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="148">
   <si>
     <t>马力欧卡丁车8 豪华版</t>
   </si>
@@ -760,7 +761,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,8 +792,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -815,32 +822,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="31" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -876,12 +864,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1156,699 +1153,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A30:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="30.625" style="17" customWidth="1"/>
     <col min="3" max="3" width="50.625" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8">
-        <v>43910</v>
-      </c>
-      <c r="D2" s="6">
-        <v>3938</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="8">
-        <v>44519</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1479</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8">
-        <v>44589</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1264</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="8">
-        <v>44239</v>
-      </c>
-      <c r="D5" s="12">
-        <v>943</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="8">
-        <v>44092</v>
-      </c>
-      <c r="D6" s="7">
-        <v>907</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="8">
-        <v>44281</v>
-      </c>
-      <c r="D7" s="6">
-        <v>770</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="8">
-        <v>44498</v>
-      </c>
-      <c r="D8" s="6">
-        <v>688</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="8">
-        <v>44680</v>
-      </c>
-      <c r="D9" s="6">
-        <v>484</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="8">
-        <v>44645</v>
-      </c>
-      <c r="D10" s="6">
-        <v>453</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="8">
-        <v>43987</v>
-      </c>
-      <c r="D11" s="6">
-        <v>422</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="8">
-        <v>44155</v>
-      </c>
-      <c r="D12" s="6">
-        <v>400</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="8">
-        <v>44393</v>
-      </c>
-      <c r="D13" s="6">
-        <v>391</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="8">
-        <v>44154</v>
-      </c>
-      <c r="D14" s="6">
-        <v>350</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="8">
-        <v>44029</v>
-      </c>
-      <c r="D15" s="6">
-        <v>334</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="8">
-        <v>44180</v>
-      </c>
-      <c r="D16" s="6">
-        <v>320</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="8">
-        <v>44477</v>
-      </c>
-      <c r="D17" s="6">
-        <v>290</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.2">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="8">
-        <v>44316</v>
-      </c>
-      <c r="D18" s="7">
-        <v>240</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="8">
-        <v>44372</v>
-      </c>
-      <c r="D19" s="6">
-        <v>235</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="8">
-        <v>44134</v>
-      </c>
-      <c r="D20" s="6">
-        <v>223</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="8">
-        <v>44722</v>
-      </c>
-      <c r="D21" s="6">
-        <v>191</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="41.4">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="8">
-        <v>43896</v>
-      </c>
-      <c r="D22" s="6">
-        <v>189</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="8">
-        <v>44337</v>
-      </c>
-      <c r="D23" s="6">
-        <v>168</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="8">
-        <v>43980</v>
-      </c>
-      <c r="D24" s="6">
-        <v>168</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="8">
-        <v>44533</v>
-      </c>
-      <c r="D25" s="6">
-        <v>159</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="41.4">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="8">
-        <v>44120</v>
-      </c>
-      <c r="D26" s="6">
-        <v>158</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="8">
-        <v>44449</v>
-      </c>
-      <c r="D27" s="6">
-        <v>127</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="26.4">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="8">
-        <v>44358</v>
-      </c>
-      <c r="D29" s="6">
-        <v>106</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="45" customHeight="1"/>
-    <row r="35" spans="1:7" ht="30" customHeight="1"/>
-    <row r="41" spans="1:7">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1"/>
-    <row r="48" spans="1:7">
-      <c r="A48" s="7"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="7"/>
-    </row>
+    <row r="30" ht="45" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="47" ht="30" customHeight="1"/>
     <row r="50" ht="26.4" customHeight="1"/>
     <row r="51" ht="45" customHeight="1"/>
     <row r="55" ht="75" customHeight="1"/>
@@ -1857,40 +1179,33 @@
     <row r="61" ht="30" customHeight="1"/>
     <row r="63" ht="45" customHeight="1"/>
     <row r="64" ht="45" customHeight="1"/>
-    <row r="67" spans="1:7" ht="79.2" customHeight="1"/>
-    <row r="69" spans="1:7" ht="45" customHeight="1"/>
-    <row r="71" spans="1:7" ht="30" customHeight="1"/>
-    <row r="72" spans="1:7" ht="60" customHeight="1"/>
-    <row r="73" spans="1:7" ht="30" customHeight="1"/>
-    <row r="74" spans="1:7" ht="45" customHeight="1">
-      <c r="A74" s="7"/>
-      <c r="B74" s="3" t="s">
+    <row r="67" spans="2:7" ht="79.2" customHeight="1"/>
+    <row r="69" spans="2:7" ht="45" customHeight="1"/>
+    <row r="71" spans="2:7" ht="30" customHeight="1"/>
+    <row r="72" spans="2:7" ht="60" customHeight="1"/>
+    <row r="73" spans="2:7" ht="30" customHeight="1"/>
+    <row r="74" spans="2:7" ht="45" customHeight="1">
+      <c r="B74" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74">
         <v>44736</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74">
         <v>100</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" t="s">
         <v>58</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G74" s="7" t="s">
+      <c r="F74" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="7"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="7" t="s">
+    <row r="75" spans="2:7">
+      <c r="G75" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1903,13 +1218,6 @@
     <row r="90" ht="30" customHeight="1"/>
     <row r="91" ht="30" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1917,6 +1225,698 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327AE1CC-094A-46DE-8BEF-53A23147DC17}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43910</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3938</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44519</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1479</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44589</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1264</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44239</v>
+      </c>
+      <c r="D5" s="8">
+        <v>943</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44092</v>
+      </c>
+      <c r="D6" s="3">
+        <v>907</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44281</v>
+      </c>
+      <c r="D7" s="2">
+        <v>770</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44498</v>
+      </c>
+      <c r="D8" s="2">
+        <v>688</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44680</v>
+      </c>
+      <c r="D9" s="2">
+        <v>484</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44645</v>
+      </c>
+      <c r="D10" s="2">
+        <v>453</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43987</v>
+      </c>
+      <c r="D11" s="2">
+        <v>422</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.4">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44155</v>
+      </c>
+      <c r="D12" s="2">
+        <v>400</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44393</v>
+      </c>
+      <c r="D13" s="2">
+        <v>391</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44154</v>
+      </c>
+      <c r="D14" s="2">
+        <v>350</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44029</v>
+      </c>
+      <c r="D15" s="2">
+        <v>334</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44180</v>
+      </c>
+      <c r="D16" s="2">
+        <v>320</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="39.6">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44477</v>
+      </c>
+      <c r="D17" s="2">
+        <v>290</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44316</v>
+      </c>
+      <c r="D18" s="3">
+        <v>240</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44372</v>
+      </c>
+      <c r="D19" s="2">
+        <v>235</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44134</v>
+      </c>
+      <c r="D20" s="2">
+        <v>223</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44722</v>
+      </c>
+      <c r="D21" s="2">
+        <v>191</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="79.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43896</v>
+      </c>
+      <c r="D22" s="2">
+        <v>189</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44337</v>
+      </c>
+      <c r="D23" s="2">
+        <v>168</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43980</v>
+      </c>
+      <c r="D24" s="2">
+        <v>168</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44533</v>
+      </c>
+      <c r="D25" s="2">
+        <v>159</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="41.4">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="4">
+        <v>44120</v>
+      </c>
+      <c r="D26" s="2">
+        <v>158</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44449</v>
+      </c>
+      <c r="D27" s="2">
+        <v>127</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44358</v>
+      </c>
+      <c r="D28" s="2">
+        <v>106</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="4">
+        <v>44736</v>
+      </c>
+      <c r="D29" s="8">
+        <v>100</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B3C56E-B50A-45E5-B7D5-87B28DBA066C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -1934,974 +1934,975 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <v>42853</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="8">
         <v>4682</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <v>43441</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>2882</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <v>42797</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>2714</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>43784</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>2450</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="41.4">
-      <c r="A6" s="7">
+    <row r="6" spans="1:7" ht="28.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <v>43035</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>2393</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>43378</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>1806</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>43420</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>1466</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45">
-      <c r="A9" s="7">
+    <row r="9" spans="1:7" ht="28.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <v>43756</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>1454</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <v>43476</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>1331</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45">
-      <c r="A11" s="7">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <v>42937</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <v>1330</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <v>43769</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <v>1143</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45">
-      <c r="A13" s="7">
+    <row r="13" spans="1:7" ht="28.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="4">
         <v>43644</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="2">
         <v>789</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="4">
         <v>43728</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="8">
         <v>608</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="4">
         <v>43273</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="2">
         <v>428</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="4">
         <v>43223</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="2">
         <v>412</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="7">
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="4">
         <v>43175</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="2">
         <v>398</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45">
-      <c r="A18" s="7">
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="4">
         <v>43672</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="8">
         <v>382</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="45">
-      <c r="A19" s="7">
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="4">
         <v>42797</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="2">
         <v>363</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="4">
         <v>42866</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="8">
         <v>320</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="6" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="39.6">
-      <c r="A22" s="7">
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="4">
         <v>43553</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="8">
         <v>301</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45">
-      <c r="A23" s="7">
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="4">
         <v>42902</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="2">
         <v>266</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30">
-      <c r="A24" s="7">
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="4">
         <v>43070</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="2">
         <v>244</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="41.4">
-      <c r="A25" s="7">
+    <row r="25" spans="1:7" ht="28.2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="4">
         <v>43294</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <v>213</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="26.4">
-      <c r="A26" s="7">
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="4">
         <v>42976</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="8">
         <v>200</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="4">
         <v>43294</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="8">
         <v>190</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="45">
-      <c r="A28" s="7">
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="4">
         <v>43000</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="3">
         <v>180</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="4">
         <v>43665</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="2">
         <v>150</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45">
-      <c r="A30" s="7">
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="4">
         <v>43210</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="2">
         <v>142</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="26.4">
-      <c r="A31" s="7">
+    <row r="31" spans="1:7">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="4">
         <v>43707</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="2">
         <v>128</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="52.8">
-      <c r="A32" s="7">
+    <row r="32" spans="1:7" ht="26.4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="4">
         <v>43826</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="8">
         <v>120</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="F32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30">
-      <c r="A33" s="7">
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="4">
         <v>43147</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="2">
         <v>104</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1">
-      <c r="A34" s="7">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="4">
         <v>43006</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="8">
         <v>100</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30">
-      <c r="A35" s="7">
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="4">
         <v>43083</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="8">
         <v>100</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
-      <c r="A36" s="7">
+    <row r="36" spans="1:7">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="4">
         <v>43300</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="2">
         <v>100</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="39.6">
-      <c r="A37" s="7">
+    <row r="37" spans="1:7">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="4">
         <v>43454</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="2">
         <v>100</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="F37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="19"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" ht="45" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="15"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>